--- a/Apex4ROBOTS-BOM.xlsx
+++ b/Apex4ROBOTS-BOM.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/Apex4R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838AB030-B176-744A-A86D-E775D992C493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28356D92-4B89-A742-BFFC-ADB4D176F1AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="19200" windowHeight="20540" activeTab="1" xr2:uid="{1384C47D-625E-D64C-AB2A-006DAB0A9BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoard" sheetId="1" r:id="rId1"/>
     <sheet name="UI Board" sheetId="3" r:id="rId2"/>
+    <sheet name="12HP Ex MainBoard" sheetId="5" r:id="rId3"/>
+    <sheet name="12HP Ex UI Board" sheetId="6" r:id="rId4"/>
+    <sheet name="6HP CV INS" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Apex_CV_Expander_MAIN_1.0" localSheetId="2">'12HP Ex MainBoard'!$A$1:$H$7</definedName>
+    <definedName name="Apex_CV_Expander_UI" localSheetId="3">'12HP Ex UI Board'!$A$1:$H$5</definedName>
+    <definedName name="Apex_CV_Inputs_UI_v1.0" localSheetId="4">'6HP CV INS'!$A$1:$H$6</definedName>
     <definedName name="ApexIJ_1_0p" localSheetId="0">MainBoard!$A$2:$H$34</definedName>
     <definedName name="ApexIJ_UI_1_0" localSheetId="1">'UI Board'!$A$1:$H$13</definedName>
   </definedNames>
@@ -39,8 +45,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{744C2025-6A2B-7849-A237-29010F3D5980}" name="ApexIJ_1_0p" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/Apex/Apex_IJ/ApexIJ_1_0p.csv" semicolon="1">
+  <connection id="1" xr16:uid="{D559D6D0-5D1D-4D43-9458-D133677ABACD}" name="Apex_CV_Expander_MAIN_1.0" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/Apex/Expanders/IJ/Apex_CV_Expander_MAIN_1.0.csv" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -53,8 +59,50 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{973876CD-6708-184E-A980-A10452E815F2}" name="ApexIJ_UI_1_0" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/shayshez/Documents/eagle/projects/Apex/Apex_IJ/ApexIJ_UI_1_0.csv" semicolon="1">
+  <connection id="2" xr16:uid="{D64FED4F-E23D-0946-8F28-5339C4D33645}" name="Apex_CV_Expander_UI" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/Apex/Expanders/IJ/Apex_CV_Expander_UI.csv" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{244E7E96-3E81-644C-B1E9-30B7D2B1009A}" name="Apex_CV_Inputs_UI_v1.0" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/Apex/Expanders/IJ/Apex_CV_Inputs_UI_v1.0.csv" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{744C2025-6A2B-7849-A237-29010F3D5980}" name="ApexIJ_1_0p" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/Apex/Apex_IJ/ApexIJ_1_0p.csv" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{973876CD-6708-184E-A980-A10452E815F2}" name="ApexIJ_UI_1_0" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/Apex/Apex_IJ/ApexIJ_UI_1_0.csv" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -71,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
   <si>
     <t>Qty</t>
   </si>
@@ -449,6 +497,75 @@
   </si>
   <si>
     <t>Cap for switch</t>
+  </si>
+  <si>
+    <t>100.0K</t>
+  </si>
+  <si>
+    <t>R1, R2, R4, R6, R7, R8, R10, R12</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4</t>
+  </si>
+  <si>
+    <t>75K</t>
+  </si>
+  <si>
+    <t>R3, R5, R9, R11</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4</t>
+  </si>
+  <si>
+    <t>IC1, IC2</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>Pin Headers 2.54 2X5</t>
+  </si>
+  <si>
+    <t>PJ301_THONKICONN</t>
+  </si>
+  <si>
+    <t>WQP_PJ_301M6</t>
+  </si>
+  <si>
+    <t>POPULARITY</t>
+  </si>
+  <si>
+    <t>PINHD-1X5</t>
+  </si>
+  <si>
+    <t>1X05</t>
+  </si>
+  <si>
+    <t>JP1, JP2</t>
+  </si>
+  <si>
+    <t>PIN HEADER</t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R10, R11, R13, R16, R17, R18, R21, R22, R23</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C6, C7, C24</t>
+  </si>
+  <si>
+    <t>R8, R14, R19, R24</t>
+  </si>
+  <si>
+    <t>IC3, IC4, IC5, IC6</t>
+  </si>
+  <si>
+    <t>Pin Headers 2.54 1X5</t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R8</t>
+  </si>
+  <si>
+    <t>Pin Header Female 1X5</t>
   </si>
 </sst>
 </file>
@@ -547,11 +664,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ApexIJ_1_0p" connectionId="1" xr16:uid="{76E8D2C5-AF26-9C49-A627-985B8F3A40F1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ApexIJ_1_0p" connectionId="4" xr16:uid="{76E8D2C5-AF26-9C49-A627-985B8F3A40F1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ApexIJ_UI_1_0" connectionId="2" xr16:uid="{521D6DF5-7544-754C-8ABB-B130A6859156}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ApexIJ_UI_1_0" connectionId="5" xr16:uid="{521D6DF5-7544-754C-8ABB-B130A6859156}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Apex_CV_Expander_MAIN_1.0" connectionId="1" xr16:uid="{4B30CAEA-0DAC-9E47-8C42-C261BE9D51B9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Apex_CV_Expander_UI" connectionId="2" xr16:uid="{18A1746C-27F7-8348-B535-53DE78F64B0A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Apex_CV_Inputs_UI_v1.0" connectionId="3" xr16:uid="{A2959593-51BC-A64F-8E33-03EDD73E21E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1711,4 +1840,453 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2911913-2FD4-BA4E-9E52-8A91E09AB7B2}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>61301021121</v>
+      </c>
+      <c r="D2">
+        <v>61301021121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C616ECA-A725-E54F-8DB8-78F4B435F1B8}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BDEF5-622B-9942-8BA8-4E1B5629A35A}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>61301021121</v>
+      </c>
+      <c r="D7">
+        <v>61301021121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>